--- a/ac_properties/_helper_key.xlsx
+++ b/ac_properties/_helper_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodj\Documents\GRAD SCHOOL - CLEMSON\Project-Specific\R work\USDA-songbirds\USDA-songbirds\ac_properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{142E9E52-F623-478B-BEE3-BDDA1A132062}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BFDCD30C-9E43-41DB-88B3-0AD703B519A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16092" windowHeight="7632" xr2:uid="{4BB146E8-3C3E-44E7-9317-0AFA49F3EF05}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16092" windowHeight="7632" xr2:uid="{4BB146E8-3C3E-44E7-9317-0AFA49F3EF05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="53">
   <si>
     <t>SiteName</t>
   </si>
@@ -179,12 +179,18 @@
   <si>
     <t>17Time4SR</t>
   </si>
+  <si>
+    <t>Visit2%SR</t>
+  </si>
+  <si>
+    <t>max difference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +200,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,16 +238,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166CDBCC-FA84-4C30-954B-5720588B339B}">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:U119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +580,7 @@
     <col min="11" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,8 +632,14 @@
       <c r="Q1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -675,8 +697,16 @@
         <f>IF(N2&gt;F2,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <f>H2/C2</f>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="U2">
+        <f>C2-H2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -734,8 +764,16 @@
         <f t="shared" ref="Q3:Q66" si="5">IF(N3&gt;F3,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <f t="shared" ref="T3:T30" si="6">H3/C3</f>
+        <v>0.87863636363636355</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U30" si="7">C3-H3</f>
+        <v>2.6700000000000017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -793,8 +831,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <f t="shared" si="6"/>
+        <v>0.85166666666666668</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="7"/>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -852,8 +898,16 @@
         <f>IF(N5&gt;F5,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>0.76374999999999993</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="7"/>
+        <v>5.6700000000000017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -911,8 +965,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -970,8 +1032,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>0.88</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1029,8 +1099,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1088,8 +1166,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <f t="shared" si="6"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="7"/>
+        <v>5.3299999999999983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1147,8 +1233,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>0.8470833333333333</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="7"/>
+        <v>3.6700000000000017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1206,8 +1300,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <f t="shared" si="6"/>
+        <v>0.84142857142857153</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="7"/>
+        <v>3.3299999999999983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1265,8 +1367,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <f t="shared" si="6"/>
+        <v>0.82703703703703701</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="7"/>
+        <v>4.6700000000000017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1324,8 +1434,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <f t="shared" si="6"/>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1383,8 +1501,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>0.85166666666666668</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="7"/>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1442,8 +1568,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1501,8 +1635,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1560,8 +1702,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <f t="shared" si="6"/>
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="7"/>
+        <v>3.3299999999999983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1619,8 +1769,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1678,8 +1836,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>0.80448275862068963</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="7"/>
+        <v>5.6700000000000017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1737,8 +1903,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1970,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>0.92047619047619045</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="7"/>
+        <v>1.6700000000000017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1855,8 +2037,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <f t="shared" si="6"/>
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="7"/>
+        <v>2.3299999999999983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1914,8 +2104,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <f t="shared" si="6"/>
+        <v>0.87863636363636355</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="7"/>
+        <v>2.6700000000000017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1973,8 +2171,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <f t="shared" si="6"/>
+        <v>0.8470833333333333</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="7"/>
+        <v>3.6700000000000017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2032,8 +2238,16 @@
         <f>IF(N25&gt;F25,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <f t="shared" si="6"/>
+        <v>0.88874999999999993</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="7"/>
+        <v>2.6700000000000017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2091,8 +2305,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <f t="shared" si="6"/>
+        <v>0.86125000000000007</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="7"/>
+        <v>3.3299999999999983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2150,8 +2372,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2209,8 +2439,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <f t="shared" si="6"/>
+        <v>0.84294117647058819</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="7"/>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2268,8 +2506,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <f t="shared" si="6"/>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="7"/>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2327,8 +2573,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <f t="shared" si="6"/>
+        <v>0.8247368421052631</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="7"/>
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2365,8 +2619,12 @@
         <f>SUM(Q2:Q30)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T31" s="3">
+        <f>AVERAGE(T2:T30)</f>
+        <v>0.84634352977422334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2386,6 +2644,10 @@
       <c r="F32">
         <f t="shared" si="1"/>
         <v>25.65</v>
+      </c>
+      <c r="T32" s="3">
+        <f>_xlfn.STDEV.P(T2:T30)</f>
+        <v>3.309712610715998E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2740,7 +3002,7 @@
         <v>21.849999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -2762,7 +3024,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -2784,7 +3046,7 @@
         <v>25.65</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -2806,7 +3068,7 @@
         <v>27.549999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -2828,7 +3090,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -2850,7 +3112,7 @@
         <v>27.549999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -2872,7 +3134,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -2894,7 +3156,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -2916,7 +3178,7 @@
         <v>26.599999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -2938,7 +3200,7 @@
         <v>21.849999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2960,7 +3222,7 @@
         <v>21.849999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2982,7 +3244,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -3040,8 +3302,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T60">
+        <f>H60/C60</f>
+        <v>0.89730769230769225</v>
+      </c>
+      <c r="U60">
+        <f>C60-H60</f>
+        <v>2.6700000000000017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -3099,8 +3369,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T61">
+        <f t="shared" ref="T61:T89" si="8">H61/C61</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="U61">
+        <f t="shared" ref="U61:U89" si="9">C61-H61</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3158,8 +3436,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T62">
+        <f t="shared" si="8"/>
+        <v>0.84043478260869553</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="9"/>
+        <v>3.6700000000000017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -3217,8 +3503,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <f t="shared" si="8"/>
+        <v>0.85166666666666668</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="9"/>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -3276,8 +3570,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <f t="shared" si="8"/>
+        <v>0.84142857142857153</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="9"/>
+        <v>3.3299999999999983</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -3335,8 +3637,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <f t="shared" si="8"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3394,8 +3704,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <f t="shared" si="8"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -3409,11 +3727,11 @@
         <v>37</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E119" si="6">C67*0.9</f>
+        <f t="shared" ref="E67:E119" si="10">C67*0.9</f>
         <v>19.8</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F119" si="7">C67*0.95</f>
+        <f t="shared" ref="F67:F119" si="11">C67*0.95</f>
         <v>20.9</v>
       </c>
       <c r="G67">
@@ -3426,11 +3744,11 @@
         <v>22</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J89" si="8">IF(H67&gt;E67,1,0)</f>
+        <f t="shared" ref="J67:J89" si="12">IF(H67&gt;E67,1,0)</f>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K89" si="9">IF(H67&gt;F67,1,0)</f>
+        <f t="shared" ref="K67:K89" si="13">IF(H67&gt;F67,1,0)</f>
         <v>0</v>
       </c>
       <c r="L67" s="2">
@@ -3446,15 +3764,23 @@
         <v>22</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P89" si="10">IF(N67&gt;E67,1,0)</f>
+        <f t="shared" ref="P67:P89" si="14">IF(N67&gt;E67,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q89" si="11">IF(N67&gt;F67,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q67:Q89" si="15">IF(N67&gt;F67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="8"/>
+        <v>0.84863636363636374</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="9"/>
+        <v>3.3299999999999983</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -3468,11 +3794,11 @@
         <v>37</v>
       </c>
       <c r="E68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="F68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="G68">
@@ -3485,11 +3811,11 @@
         <v>20</v>
       </c>
       <c r="J68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L68" s="2">
@@ -3505,15 +3831,23 @@
         <v>20</v>
       </c>
       <c r="P68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="8"/>
+        <v>0.86649999999999994</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="9"/>
+        <v>2.6700000000000017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -3527,11 +3861,11 @@
         <v>37</v>
       </c>
       <c r="E69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>26.1</v>
       </c>
       <c r="F69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>27.549999999999997</v>
       </c>
       <c r="G69">
@@ -3544,11 +3878,11 @@
         <v>29</v>
       </c>
       <c r="J69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L69" s="2">
@@ -3564,15 +3898,23 @@
         <v>29</v>
       </c>
       <c r="P69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="8"/>
+        <v>0.83896551724137924</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="9"/>
+        <v>4.6700000000000017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -3586,11 +3928,11 @@
         <v>37</v>
       </c>
       <c r="E70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>25.2</v>
       </c>
       <c r="F70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>26.599999999999998</v>
       </c>
       <c r="G70">
@@ -3603,11 +3945,11 @@
         <v>28</v>
       </c>
       <c r="J70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L70" s="2">
@@ -3623,15 +3965,23 @@
         <v>28</v>
       </c>
       <c r="P70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="8"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -3645,11 +3995,11 @@
         <v>37</v>
       </c>
       <c r="E71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>22.5</v>
       </c>
       <c r="F71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>23.75</v>
       </c>
       <c r="G71">
@@ -3662,11 +4012,11 @@
         <v>25</v>
       </c>
       <c r="J71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L71" s="2">
@@ -3682,15 +4032,23 @@
         <v>25</v>
       </c>
       <c r="P71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="8"/>
+        <v>0.92</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -3704,11 +4062,11 @@
         <v>37</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>19.8</v>
       </c>
       <c r="F72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20.9</v>
       </c>
       <c r="G72">
@@ -3721,11 +4079,11 @@
         <v>22</v>
       </c>
       <c r="J72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L72" s="2">
@@ -3741,15 +4099,23 @@
         <v>22</v>
       </c>
       <c r="P72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="8"/>
+        <v>0.89409090909090916</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="9"/>
+        <v>2.3299999999999983</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -3763,11 +4129,11 @@
         <v>37</v>
       </c>
       <c r="E73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>19.8</v>
       </c>
       <c r="F73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20.9</v>
       </c>
       <c r="G73">
@@ -3780,11 +4146,11 @@
         <v>22</v>
       </c>
       <c r="J73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L73" s="2">
@@ -3800,15 +4166,23 @@
         <v>22</v>
       </c>
       <c r="P73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="8"/>
+        <v>0.84863636363636374</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="9"/>
+        <v>3.3299999999999983</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -3822,11 +4196,11 @@
         <v>37</v>
       </c>
       <c r="E74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
       <c r="F74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22.799999999999997</v>
       </c>
       <c r="G74">
@@ -3839,11 +4213,11 @@
         <v>19</v>
       </c>
       <c r="J74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L74" s="2">
@@ -3859,15 +4233,23 @@
         <v>24</v>
       </c>
       <c r="P74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -3881,11 +4263,11 @@
         <v>37</v>
       </c>
       <c r="E75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>16.2</v>
       </c>
       <c r="F75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17.099999999999998</v>
       </c>
       <c r="G75">
@@ -3898,11 +4280,11 @@
         <v>18</v>
       </c>
       <c r="J75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L75" s="2">
@@ -3918,15 +4300,23 @@
         <v>18</v>
       </c>
       <c r="P75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="8"/>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="9"/>
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -3940,11 +4330,11 @@
         <v>37</v>
       </c>
       <c r="E76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>20.7</v>
       </c>
       <c r="F76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>21.849999999999998</v>
       </c>
       <c r="G76">
@@ -3957,11 +4347,11 @@
         <v>23</v>
       </c>
       <c r="J76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L76" s="2">
@@ -3977,15 +4367,23 @@
         <v>23</v>
       </c>
       <c r="P76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="8"/>
+        <v>0.88391304347826083</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="9"/>
+        <v>2.6700000000000017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -3999,11 +4397,11 @@
         <v>37</v>
       </c>
       <c r="E77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18.900000000000002</v>
       </c>
       <c r="F77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19.95</v>
       </c>
       <c r="G77">
@@ -4016,11 +4414,11 @@
         <v>21</v>
       </c>
       <c r="J77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L77" s="2">
@@ -4036,15 +4434,23 @@
         <v>21</v>
       </c>
       <c r="P77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="8"/>
+        <v>0.8252380952380951</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="9"/>
+        <v>3.6700000000000017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -4058,11 +4464,11 @@
         <v>37</v>
       </c>
       <c r="E78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>17.100000000000001</v>
       </c>
       <c r="F78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18.05</v>
       </c>
       <c r="G78">
@@ -4075,11 +4481,11 @@
         <v>19</v>
       </c>
       <c r="J78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L78" s="2">
@@ -4095,15 +4501,23 @@
         <v>19</v>
       </c>
       <c r="P78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="8"/>
+        <v>0.87736842105263169</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="9"/>
+        <v>2.3299999999999983</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -4117,11 +4531,11 @@
         <v>37</v>
       </c>
       <c r="E79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>20.7</v>
       </c>
       <c r="F79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>21.849999999999998</v>
       </c>
       <c r="G79">
@@ -4134,11 +4548,11 @@
         <v>23</v>
       </c>
       <c r="J79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L79" s="2">
@@ -4154,15 +4568,23 @@
         <v>23</v>
       </c>
       <c r="P79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="8"/>
+        <v>0.84043478260869553</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="9"/>
+        <v>3.6700000000000017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -4176,11 +4598,11 @@
         <v>37</v>
       </c>
       <c r="E80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
       <c r="F80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22.799999999999997</v>
       </c>
       <c r="G80">
@@ -4193,11 +4615,11 @@
         <v>24</v>
       </c>
       <c r="J80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L80" s="2">
@@ -4213,15 +4635,23 @@
         <v>24</v>
       </c>
       <c r="P80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -4235,11 +4665,11 @@
         <v>37</v>
       </c>
       <c r="E81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>24.3</v>
       </c>
       <c r="F81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>25.65</v>
       </c>
       <c r="G81">
@@ -4252,11 +4682,11 @@
         <v>27</v>
       </c>
       <c r="J81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L81" s="2">
@@ -4272,15 +4702,23 @@
         <v>27</v>
       </c>
       <c r="P81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="8"/>
+        <v>0.86407407407407399</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="9"/>
+        <v>3.6700000000000017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>25</v>
       </c>
@@ -4294,11 +4732,11 @@
         <v>37</v>
       </c>
       <c r="E82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>22.5</v>
       </c>
       <c r="F82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>23.75</v>
       </c>
       <c r="G82">
@@ -4311,11 +4749,11 @@
         <v>25</v>
       </c>
       <c r="J82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L82" s="2">
@@ -4331,15 +4769,23 @@
         <v>25</v>
       </c>
       <c r="P82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="8"/>
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="9"/>
+        <v>2.3299999999999983</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -4353,11 +4799,11 @@
         <v>37</v>
       </c>
       <c r="E83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18.900000000000002</v>
       </c>
       <c r="F83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19.95</v>
       </c>
       <c r="G83">
@@ -4370,11 +4816,11 @@
         <v>21</v>
       </c>
       <c r="J83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L83" s="2">
@@ -4390,15 +4836,23 @@
         <v>21</v>
       </c>
       <c r="P83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="8"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -4412,11 +4866,11 @@
         <v>37</v>
       </c>
       <c r="E84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23.400000000000002</v>
       </c>
       <c r="F84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>24.7</v>
       </c>
       <c r="G84">
@@ -4429,11 +4883,11 @@
         <v>26</v>
       </c>
       <c r="J84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L84" s="2">
@@ -4449,15 +4903,23 @@
         <v>26</v>
       </c>
       <c r="P84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="8"/>
+        <v>0.85884615384615381</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="9"/>
+        <v>3.6700000000000017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -4471,11 +4933,11 @@
         <v>37</v>
       </c>
       <c r="E85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>19.8</v>
       </c>
       <c r="F85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20.9</v>
       </c>
       <c r="G85">
@@ -4488,11 +4950,11 @@
         <v>22</v>
       </c>
       <c r="J85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L85" s="2">
@@ -4508,15 +4970,23 @@
         <v>22</v>
       </c>
       <c r="P85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="8"/>
+        <v>0.89409090909090916</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="9"/>
+        <v>2.3299999999999983</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -4530,11 +5000,11 @@
         <v>37</v>
       </c>
       <c r="E86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>19.8</v>
       </c>
       <c r="F86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20.9</v>
       </c>
       <c r="G86">
@@ -4547,11 +5017,11 @@
         <v>22</v>
       </c>
       <c r="J86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L86" s="2">
@@ -4567,15 +5037,23 @@
         <v>22</v>
       </c>
       <c r="P86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="8"/>
+        <v>0.87863636363636355</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="9"/>
+        <v>2.6700000000000017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -4589,11 +5067,11 @@
         <v>37</v>
       </c>
       <c r="E87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>22.5</v>
       </c>
       <c r="F87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>23.75</v>
       </c>
       <c r="G87">
@@ -4606,11 +5084,11 @@
         <v>25</v>
       </c>
       <c r="J87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L87" s="2">
@@ -4626,15 +5104,23 @@
         <v>25</v>
       </c>
       <c r="P87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="8"/>
+        <v>0.89319999999999988</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="9"/>
+        <v>2.6700000000000017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -4648,11 +5134,11 @@
         <v>37</v>
       </c>
       <c r="E88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>20.7</v>
       </c>
       <c r="F88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>21.849999999999998</v>
       </c>
       <c r="G88">
@@ -4665,11 +5151,11 @@
         <v>23</v>
       </c>
       <c r="J88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L88" s="2">
@@ -4685,15 +5171,23 @@
         <v>23</v>
       </c>
       <c r="P88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="8"/>
+        <v>0.92739130434782602</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="9"/>
+        <v>1.6700000000000017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -4707,11 +5201,11 @@
         <v>37</v>
       </c>
       <c r="E89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>20.7</v>
       </c>
       <c r="F89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>21.849999999999998</v>
       </c>
       <c r="G89">
@@ -4724,11 +5218,11 @@
         <v>23</v>
       </c>
       <c r="J89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L89" s="2">
@@ -4744,15 +5238,23 @@
         <v>23</v>
       </c>
       <c r="P89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="8"/>
+        <v>0.94217391304347831</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="9"/>
+        <v>1.3299999999999983</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -4766,11 +5268,11 @@
         <v>37</v>
       </c>
       <c r="E90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23.400000000000002</v>
       </c>
       <c r="F90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>24.7</v>
       </c>
       <c r="J90" s="1">
@@ -4789,8 +5291,12 @@
         <f>SUM(Q60:Q89)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T90">
+        <f>AVERAGE(T60:T89)</f>
+        <v>0.86755098234129924</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -4804,15 +5310,19 @@
         <v>37</v>
       </c>
       <c r="E91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
       <c r="F91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22.799999999999997</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T91">
+        <f>_xlfn.STDEV.P(T60:T89)</f>
+        <v>3.9643288722119967E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -4826,15 +5336,15 @@
         <v>37</v>
       </c>
       <c r="E92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>19.8</v>
       </c>
       <c r="F92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20.9</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -4848,15 +5358,23 @@
         <v>37</v>
       </c>
       <c r="E93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18.900000000000002</v>
       </c>
       <c r="F93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T93" s="3">
+        <f>AVERAGE(T2:T30,T60:T89)</f>
+        <v>0.85712698023205802</v>
+      </c>
+      <c r="U93">
+        <f>MAX(U2:U30,U60:U89)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -4870,15 +5388,19 @@
         <v>37</v>
       </c>
       <c r="E94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18.900000000000002</v>
       </c>
       <c r="F94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T94" s="3">
+        <f>_xlfn.STDEV.P(T2:T30,T60:T89)</f>
+        <v>3.8078170949773373E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4892,15 +5414,15 @@
         <v>37</v>
       </c>
       <c r="E95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>17.100000000000001</v>
       </c>
       <c r="F95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18.05</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -4914,11 +5436,11 @@
         <v>37</v>
       </c>
       <c r="E96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18.900000000000002</v>
       </c>
       <c r="F96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19.95</v>
       </c>
     </row>
@@ -4936,11 +5458,11 @@
         <v>37</v>
       </c>
       <c r="E97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
       <c r="F97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22.799999999999997</v>
       </c>
     </row>
@@ -4958,11 +5480,11 @@
         <v>37</v>
       </c>
       <c r="E98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18.900000000000002</v>
       </c>
       <c r="F98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19.95</v>
       </c>
     </row>
@@ -4980,11 +5502,11 @@
         <v>37</v>
       </c>
       <c r="E99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>22.5</v>
       </c>
       <c r="F99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>23.75</v>
       </c>
     </row>
@@ -5002,11 +5524,11 @@
         <v>37</v>
       </c>
       <c r="E100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23.400000000000002</v>
       </c>
       <c r="F100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>24.7</v>
       </c>
     </row>
@@ -5024,11 +5546,11 @@
         <v>37</v>
       </c>
       <c r="E101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
       <c r="F101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22.799999999999997</v>
       </c>
     </row>
@@ -5046,11 +5568,11 @@
         <v>37</v>
       </c>
       <c r="E102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>22.5</v>
       </c>
       <c r="F102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>23.75</v>
       </c>
     </row>
@@ -5068,11 +5590,11 @@
         <v>37</v>
       </c>
       <c r="E103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>24.3</v>
       </c>
       <c r="F103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>25.65</v>
       </c>
     </row>
@@ -5090,11 +5612,11 @@
         <v>37</v>
       </c>
       <c r="E104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23.400000000000002</v>
       </c>
       <c r="F104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>24.7</v>
       </c>
     </row>
@@ -5112,11 +5634,11 @@
         <v>37</v>
       </c>
       <c r="E105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18.900000000000002</v>
       </c>
       <c r="F105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19.95</v>
       </c>
     </row>
@@ -5134,11 +5656,11 @@
         <v>37</v>
       </c>
       <c r="E106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>20.7</v>
       </c>
       <c r="F106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>21.849999999999998</v>
       </c>
     </row>
@@ -5156,11 +5678,11 @@
         <v>37</v>
       </c>
       <c r="E107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="F107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
@@ -5178,11 +5700,11 @@
         <v>37</v>
       </c>
       <c r="E108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23.400000000000002</v>
       </c>
       <c r="F108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>24.7</v>
       </c>
     </row>
@@ -5200,11 +5722,11 @@
         <v>37</v>
       </c>
       <c r="E109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>22.5</v>
       </c>
       <c r="F109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>23.75</v>
       </c>
     </row>
@@ -5222,11 +5744,11 @@
         <v>37</v>
       </c>
       <c r="E110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>19.8</v>
       </c>
       <c r="F110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20.9</v>
       </c>
     </row>
@@ -5244,11 +5766,11 @@
         <v>37</v>
       </c>
       <c r="E111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
       <c r="F111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22.799999999999997</v>
       </c>
     </row>
@@ -5266,11 +5788,11 @@
         <v>37</v>
       </c>
       <c r="E112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23.400000000000002</v>
       </c>
       <c r="F112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>24.7</v>
       </c>
     </row>
@@ -5288,11 +5810,11 @@
         <v>37</v>
       </c>
       <c r="E113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>22.5</v>
       </c>
       <c r="F113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>23.75</v>
       </c>
     </row>
@@ -5310,11 +5832,11 @@
         <v>37</v>
       </c>
       <c r="E114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>22.5</v>
       </c>
       <c r="F114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>23.75</v>
       </c>
     </row>
@@ -5332,11 +5854,11 @@
         <v>37</v>
       </c>
       <c r="E115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
       <c r="F115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22.799999999999997</v>
       </c>
     </row>
@@ -5354,11 +5876,11 @@
         <v>37</v>
       </c>
       <c r="E116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>20.7</v>
       </c>
       <c r="F116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>21.849999999999998</v>
       </c>
     </row>
@@ -5376,11 +5898,11 @@
         <v>37</v>
       </c>
       <c r="E117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
       <c r="F117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22.799999999999997</v>
       </c>
     </row>
@@ -5398,11 +5920,11 @@
         <v>37</v>
       </c>
       <c r="E118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
       <c r="F118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22.799999999999997</v>
       </c>
     </row>
@@ -5420,11 +5942,11 @@
         <v>37</v>
       </c>
       <c r="E119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23.400000000000002</v>
       </c>
       <c r="F119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>24.7</v>
       </c>
     </row>
